--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_19.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82872.13808298015</v>
+        <v>98865.02566751585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728817</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>271.1696440040409</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>44.41540642131885</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498666</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11.31462210444193</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>128.4970238253393</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>155.3468242501903</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>60.26951970765003</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1032,7 +1032,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494245</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>83.40026923252945</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>184.4204837359408</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>189.1305067218146</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773036</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.5106614771179</v>
+        <v>162.3912409166441</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>24.08852816170401</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>163.4485242272185</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.3532861040708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>352.8438062225905</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>360.1937130863488</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1768,25 +1768,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>17.13267830033018</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>18.98362271315965</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>288.0589953693551</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>315.126686299914</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1938,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2044,28 +2044,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>129.0246247964038</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>79.52239287650625</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>243.9223155524621</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2166,13 +2166,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H21" t="n">
         <v>104.3883541553076</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>113.9615837039749</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>200.9124899777286</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.4851220250502</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>43.99240337009289</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>127.004412707233</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>163.3224055697218</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4106622846848</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>9.461970681989463</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>11.6788446020113</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>199.0209801826485</v>
       </c>
       <c r="D29" t="n">
-        <v>163.5427340114687</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>112.5230191874441</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>163.8608514409111</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,16 +3038,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>213.9152309627408</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>68.92273713484497</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G33" t="n">
         <v>136.5310119231965</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>81.80445351869582</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>99.67868129518078</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.121647921325339</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,10 +3281,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>144.0258383958642</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3424,22 +3424,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>150.5540262346245</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>195.4109594035737</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>137.8154619960443</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>235.2082584406676</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>38.85099796338663</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>147.1283719057548</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>295.2048657525322</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>212.7378510283938</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3940,28 +3940,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>126.7632886126197</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3992,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>257.0152846411285</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>329.3652646889703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
         <v>61.42221998250818</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>171.7175086016392</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>59.66385641544514</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.103316533936</v>
+        <v>1348.719328075851</v>
       </c>
       <c r="C2" t="n">
-        <v>823.1945852167225</v>
+        <v>1348.719328075851</v>
       </c>
       <c r="D2" t="n">
-        <v>464.928886609972</v>
+        <v>990.4536294691006</v>
       </c>
       <c r="E2" t="n">
-        <v>464.928886609972</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834949</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834949</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834949</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>1348.719328075851</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4404,55 +4404,55 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>280.0282177315057</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>280.0282177315057</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>280.0282177315057</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>280.0282177315057</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S4" t="n">
-        <v>450.1873520796696</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T4" t="n">
-        <v>222.8791647482714</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U4" t="n">
-        <v>222.8791647482714</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8791647482714</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>280.0282177315057</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>951.4629090302697</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="C5" t="n">
-        <v>951.4629090302697</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>593.1972104235191</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E5" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="X5" t="n">
-        <v>1498.518225097183</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1108.378893121371</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598705</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4680,7 +4680,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="T7" t="n">
-        <v>138.3857151273829</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1647.620145934678</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.657628994267</v>
+        <v>1190.466432118117</v>
       </c>
       <c r="D8" t="n">
-        <v>920.3919303875161</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E8" t="n">
-        <v>534.603677789272</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>1647.620145934678</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y8" t="n">
-        <v>1647.620145934678</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1637.643464250441</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2672.817244390239</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2496.639756704409</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2278.005089676471</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U11" t="n">
-        <v>2024.243304314563</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V11" t="n">
-        <v>2024.243304314563</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W11" t="n">
-        <v>2024.243304314563</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X11" t="n">
-        <v>2024.243304314563</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y11" t="n">
-        <v>2024.243304314563</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
         <v>2188.831293537797</v>
@@ -5157,10 +5157,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>555.0448568285851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>555.0448568285851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>404.9282174162494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>404.9282174162494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>404.9282174162494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>555.0448568285851</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2310.549250954101</v>
+        <v>422.9054987607762</v>
       </c>
       <c r="C14" t="n">
-        <v>1954.141365880777</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.875667274027</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036446</v>
@@ -5276,19 +5276,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018223</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018223</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>579.9823256406185</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C16" t="n">
-        <v>579.9823256406185</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D16" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036446</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S16" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T16" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U16" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V16" t="n">
-        <v>579.9823256406185</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W16" t="n">
-        <v>579.9823256406185</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X16" t="n">
-        <v>579.9823256406185</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y16" t="n">
-        <v>579.9823256406185</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>903.5661947296837</v>
+        <v>987.3573795552941</v>
       </c>
       <c r="C17" t="n">
-        <v>534.603677789272</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D17" t="n">
-        <v>534.603677789272</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E17" t="n">
-        <v>534.603677789272</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F17" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
@@ -5513,19 +5513,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5546,19 +5546,19 @@
         <v>2302.336936304456</v>
       </c>
       <c r="U17" t="n">
-        <v>2302.336936304456</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V17" t="n">
-        <v>1971.274048960885</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W17" t="n">
-        <v>1680.305366769617</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X17" t="n">
-        <v>1680.305366769617</v>
+        <v>1377.496711531106</v>
       </c>
       <c r="Y17" t="n">
-        <v>1290.166034793805</v>
+        <v>987.3573795552941</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5583,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5595,22 +5595,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5680,37 +5680,37 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064347</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064347</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610026</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V19" t="n">
-        <v>184.2708856551157</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036446</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036446</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1349.006596680238</v>
+        <v>1097.103316533936</v>
       </c>
       <c r="C20" t="n">
-        <v>1349.006596680238</v>
+        <v>1097.103316533936</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>1097.103316533936</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>711.3150639356913</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>300.3291591460838</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
@@ -5762,7 +5762,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U20" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V20" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W20" t="n">
-        <v>2125.745768720171</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X20" t="n">
-        <v>2125.745768720171</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y20" t="n">
-        <v>1735.60643674436</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5826,10 +5826,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5841,31 +5841,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D22" t="n">
         <v>2022.963088632153</v>
@@ -5914,46 +5914,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="U22" t="n">
-        <v>2567.064746875</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="V22" t="n">
-        <v>2312.380258669114</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>2354.728192874729</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2058.606050724286</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C23" t="n">
-        <v>1689.643533783874</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D23" t="n">
-        <v>1331.377835177124</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E23" t="n">
-        <v>945.5895825788796</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
         <v>534.603677789272</v>
@@ -5987,7 +5987,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -6005,34 +6005,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2531.002503114132</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2312.367836086195</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2058.606050724286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2058.606050724286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2058.606050724286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2058.606050724286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y23" t="n">
-        <v>2058.606050724286</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6072,16 +6072,16 @@
         <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6090,7 +6090,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
         <v>2488.762748073963</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.37975290126636</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>98.37975290126636</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>98.37975290126636</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>98.37975290126636</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>98.37975290126636</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6166,31 +6166,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T25" t="n">
-        <v>500.8207968750362</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U25" t="n">
-        <v>500.8207968750362</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="V25" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W25" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>280.0282177315061</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>546.1098286224644</v>
       </c>
       <c r="C26" t="n">
-        <v>1546.94416071721</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D26" t="n">
-        <v>1331.377835177124</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E26" t="n">
-        <v>945.5895825788796</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6309,16 @@
         <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
@@ -6406,25 +6406,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T28" t="n">
-        <v>352.6741383092202</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U28" t="n">
-        <v>63.50052796378816</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y28" t="n">
         <v>53.94298182036446</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1503.550419308995</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C29" t="n">
-        <v>1503.550419308995</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D29" t="n">
-        <v>1338.355738489329</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6461,19 +6461,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6491,22 +6491,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>1893.689751284806</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>1893.689751284806</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X29" t="n">
-        <v>1893.689751284806</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y29" t="n">
-        <v>1503.550419308995</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J30" t="n">
         <v>53.94298182036446</v>
@@ -6555,10 +6555,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.6129726499586</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C31" t="n">
         <v>393.6767897220517</v>
@@ -6646,25 +6646,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>562.6129726499586</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>562.6129726499586</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1166.959449965771</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C32" t="n">
-        <v>797.9969330253591</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
@@ -6716,34 +6716,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.317548404538</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="X32" t="n">
-        <v>1943.698622005704</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y32" t="n">
-        <v>1553.559290029893</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6774,46 +6774,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6822,7 +6822,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>2151.250374195015</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>2151.250374195015</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>2151.250374195015</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6862,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2667.732171871844</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R34" t="n">
-        <v>2519.585513306029</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="S34" t="n">
-        <v>2305.297090124192</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="T34" t="n">
-        <v>2305.297090124192</v>
+        <v>2440.423984540447</v>
       </c>
       <c r="U34" t="n">
-        <v>2204.611553462393</v>
+        <v>2151.250374195015</v>
       </c>
       <c r="V34" t="n">
-        <v>2204.611553462393</v>
+        <v>2151.250374195015</v>
       </c>
       <c r="W34" t="n">
-        <v>2204.611553462393</v>
+        <v>2151.250374195015</v>
       </c>
       <c r="X34" t="n">
-        <v>2204.611553462393</v>
+        <v>2151.250374195015</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.611553462393</v>
+        <v>2151.250374195015</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2091.914583926163</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C35" t="n">
-        <v>1722.952066985752</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>1364.686368379001</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
@@ -6947,40 +6947,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990285</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V35" t="n">
-        <v>2478.514423990285</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W35" t="n">
-        <v>2478.514423990285</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X35" t="n">
-        <v>2478.514423990285</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y35" t="n">
-        <v>2478.514423990285</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036423</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641987</v>
+        <v>368.8844281164666</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598706</v>
+        <v>773.5003462121384</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>348.7460229006679</v>
+        <v>2499.764283539866</v>
       </c>
       <c r="C37" t="n">
-        <v>348.7460229006679</v>
+        <v>2330.828100611959</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>576.0542102320662</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>348.7460229006679</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>348.7460229006679</v>
+        <v>2499.764283539866</v>
       </c>
       <c r="V37" t="n">
-        <v>348.7460229006679</v>
+        <v>2499.764283539866</v>
       </c>
       <c r="W37" t="n">
-        <v>348.7460229006679</v>
+        <v>2499.764283539866</v>
       </c>
       <c r="X37" t="n">
-        <v>348.7460229006679</v>
+        <v>2499.764283539866</v>
       </c>
       <c r="Y37" t="n">
-        <v>348.7460229006679</v>
+        <v>2499.764283539866</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.959449965771</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253591</v>
+        <v>1348.190375184709</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>989.9246765779581</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>604.1364239797138</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>193.1505191901062</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7184,40 +7184,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V38" t="n">
-        <v>2147.451536646714</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W38" t="n">
-        <v>1794.6828813766</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X38" t="n">
-        <v>1557.098781941583</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y38" t="n">
-        <v>1166.959449965771</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="39">
@@ -7248,10 +7248,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7269,7 +7269,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>204.0596212327002</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="C40" t="n">
-        <v>204.0596212327002</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2231.20632118007</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2062.206520918402</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2062.206520918402</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>352.6741383092202</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>352.6741383092202</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V40" t="n">
-        <v>352.6741383092202</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W40" t="n">
-        <v>352.6741383092202</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X40" t="n">
-        <v>204.0596212327002</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y40" t="n">
-        <v>204.0596212327002</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1150.38930518072</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C41" t="n">
-        <v>1150.38930518072</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="D41" t="n">
-        <v>792.1236065739693</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1236065739693</v>
+        <v>422.2956760357736</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>422.2956760357736</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7415,46 +7415,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2212.181128500977</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W41" t="n">
-        <v>2212.181128500977</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X41" t="n">
-        <v>1838.715370239897</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y41" t="n">
-        <v>1448.576038264086</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7588,31 +7588,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T43" t="n">
-        <v>471.4038777286581</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U43" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V43" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W43" t="n">
-        <v>181.9867076916975</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1210.087414675782</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.087414675782</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D44" t="n">
-        <v>1210.087414675782</v>
+        <v>1528.292345937432</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>1142.504093339188</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>731.5181885495801</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>313.554380447767</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.942981820364</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1916.245359491378</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1916.245359491378</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1542.779601230298</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y44" t="n">
-        <v>1210.087414675782</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7701,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2309.40863894584</v>
+        <v>2636.88256938646</v>
       </c>
       <c r="C46" t="n">
-        <v>2309.40863894584</v>
+        <v>2636.88256938646</v>
       </c>
       <c r="D46" t="n">
-        <v>2159.291999533505</v>
+        <v>2486.765929974124</v>
       </c>
       <c r="E46" t="n">
-        <v>2159.291999533505</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="F46" t="n">
-        <v>2159.291999533505</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="G46" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
         <v>2022.963088632153</v>
@@ -7810,46 +7810,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S46" t="n">
-        <v>2482.860667836385</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>2482.860667836385</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U46" t="n">
-        <v>2309.40863894584</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V46" t="n">
-        <v>2309.40863894584</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W46" t="n">
-        <v>2309.40863894584</v>
+        <v>2636.88256938646</v>
       </c>
       <c r="X46" t="n">
-        <v>2309.40863894584</v>
+        <v>2636.88256938646</v>
       </c>
       <c r="Y46" t="n">
-        <v>2309.40863894584</v>
+        <v>2636.88256938646</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747125</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714827</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>248.7449980781076</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.66121455045</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>94.1032477669666</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>337.5149636509429</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22705,7 +22705,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22714,19 +22714,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>134.1064259184893</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>83.64851512467956</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>227.3870174132903</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22793,16 +22793,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,13 +22829,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>325.9684189484036</v>
       </c>
     </row>
     <row r="6">
@@ -22957,13 +22957,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22984,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>63.2649227476284</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23008,7 +23008,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23024,19 +23024,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>170.2625578847422</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23066,28 +23066,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>180.6005939566545</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23197,10 +23197,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23233,7 +23233,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>6.771212764859854</v>
+        <v>123.8906333253337</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>30.38987441310769</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>206.2825764512505</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,22 +23458,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.23136724802399</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>12.42908554841705</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>9.53738759212024</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23656,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>128.2883697226011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23710,16 +23710,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>206.7260326758775</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>61.18197334805791</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>54.60441437855502</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23932,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>157.4983735401872</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700032</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,7 +23972,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>275.1606487441767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>169.8618544683329</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,10 +24014,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24178,22 +24178,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>104.6230696481199</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>164.3604017932789</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24254,13 +24254,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>9.930590783921303</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>123.317398888958</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801578</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>125.133230616595</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,19 +24440,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>201.9504862012858</v>
       </c>
       <c r="D26" t="n">
-        <v>141.2723793359981</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,22 +24488,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>242.6756726418385</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>274.8441537345797</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24680,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>166.251911588359</v>
       </c>
       <c r="D29" t="n">
-        <v>191.1403076092143</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,16 +24731,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>67.30896099449322</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24886,7 +24886,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>48.28468750910781</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,16 +24926,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,16 +24974,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>113.8370275073941</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>300.8083635436241</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>64.62950912787335</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25096,7 +25096,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>186.603192946797</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,10 +25157,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>380.8087221509364</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25169,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>30.38987441310726</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25312,22 +25312,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25360,13 +25360,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>61.59151271539437</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>90.87091483840402</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>275.9687080247506</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25442,22 +25442,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>134.5228422378014</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>96.11462382895161</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853699</v>
@@ -25594,13 +25594,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>78.58128348328233</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.52897591094836</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>201.0463189924012</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25828,28 +25828,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787163</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>98.94636677641742</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>66.90748812322863</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>56.87267396708324</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853699</v>
@@ -26071,19 +26071,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>114.5643656403386</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>226.8591419211459</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401824</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401824</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
   </sheetData>
@@ -26320,28 +26320,28 @@
         <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="G2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="H2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="I2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="H2" t="n">
-        <v>274694.9795149696</v>
-      </c>
-      <c r="I2" t="n">
-        <v>274694.9795149696</v>
-      </c>
       <c r="J2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="K2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>274694.9795149698</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149696</v>
       </c>
       <c r="M2" t="n">
         <v>274694.9795149699</v>
@@ -26350,10 +26350,10 @@
         <v>274694.9795149698</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149695</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="D4" t="n">
         <v>513.1084990597035</v>
@@ -26430,25 +26430,25 @@
         <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="K4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26457,7 +26457,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26482,10 +26482,10 @@
         <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26497,19 +26497,19 @@
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398645.086262044</v>
+        <v>-398645.0862620437</v>
       </c>
       <c r="C6" t="n">
-        <v>191322.7929525005</v>
+        <v>191322.7929525006</v>
       </c>
       <c r="D6" t="n">
         <v>191322.7929525006</v>
       </c>
       <c r="E6" t="n">
-        <v>224950.3929525008</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="F6" t="n">
         <v>224950.3929525006</v>
       </c>
       <c r="G6" t="n">
-        <v>224950.3929525008</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="H6" t="n">
+        <v>224950.3929525006</v>
+      </c>
+      <c r="I6" t="n">
+        <v>224950.3929525007</v>
+      </c>
+      <c r="J6" t="n">
+        <v>48527.17375990775</v>
+      </c>
+      <c r="K6" t="n">
         <v>224950.3929525005</v>
       </c>
-      <c r="I6" t="n">
-        <v>224950.3929525004</v>
-      </c>
-      <c r="J6" t="n">
-        <v>48527.17375990756</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>224950.3929525006</v>
-      </c>
-      <c r="L6" t="n">
-        <v>224950.3929525004</v>
       </c>
       <c r="M6" t="n">
         <v>224950.3929525007</v>
       </c>
       <c r="N6" t="n">
-        <v>224950.3929525007</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="O6" t="n">
-        <v>224950.3929525006</v>
+        <v>224950.3929525003</v>
       </c>
       <c r="P6" t="n">
         <v>224950.3929525007</v>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="F3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="G3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="F3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="G3" t="n">
-        <v>377.7436642170869</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,7 +26805,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26817,19 +26817,19 @@
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31850,28 +31850,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O12" t="n">
-        <v>73.87984549392672</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31932,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32087,28 +32087,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O15" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32169,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32227,10 +32227,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32239,34 +32239,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>91.88325107529232</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32403,28 +32403,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O21" t="n">
         <v>193.3156655923047</v>
@@ -32792,7 +32792,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071298</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -32804,7 +32804,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>111.7343803072865</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
@@ -33029,7 +33029,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071302</v>
       </c>
       <c r="M27" t="n">
         <v>205.8702969983122</v>
@@ -33041,7 +33041,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
@@ -33275,7 +33275,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>149.897181251634</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479578</v>
@@ -33518,7 +33518,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.29709682323505</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034983</v>
@@ -33664,7 +33664,7 @@
         <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405363</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33755,7 +33755,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034983</v>
@@ -34211,7 +34211,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>11.76595806653282</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34223,7 +34223,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>149.897181251634</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479578</v>
@@ -34445,7 +34445,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34466,7 +34466,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034983</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,13 +35498,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O12" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,13 +35735,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
         <v>146.3614835535656</v>
@@ -36054,10 +36054,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36440,7 +36440,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36452,7 +36452,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36677,7 +36677,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36689,7 +36689,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36923,13 +36923,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492237</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>242.1053372686588</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492237</v>
@@ -37637,10 +37637,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
         <v>485.8144648060966</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,7 +37871,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735647</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38111,10 +38111,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1117829.467727759</v>
+        <v>1146673.778482486</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98865.02566751585</v>
+        <v>90807.18807719863</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728817</v>
+        <v>9102620.618728818</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.41540642131885</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>167.0468310040415</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498666</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11.31462210444193</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>26.99995778729098</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>60.26951970765003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1032,7 +1034,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>83.40026923252945</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>184.4204837359408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>311.4936872159399</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1269,7 +1271,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>162.3912409166441</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>307.1861186321479</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>163.4485242272185</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U13" t="n">
-        <v>190.2713935802968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1661,19 +1663,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X14" t="n">
-        <v>360.1937130863488</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>18.98362271315965</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>315.126686299914</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2044,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>223.8243835520302</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>386.4846542932602</v>
       </c>
       <c r="G20" t="n">
-        <v>243.9223155524621</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2172,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
         <v>104.3883541553076</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.9615837039749</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>200.9124899777286</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,22 +2520,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>126.4837616268617</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>163.3224055697218</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W28" t="n">
-        <v>11.6788446020113</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>199.0209801826485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,10 +2809,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>253.5111876485552</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>112.5230191874441</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2965,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>213.9152309627408</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.5310119231965</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>81.80445351869582</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>92.52513386151743</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>144.0258383958642</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3399,7 +3401,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="U37" t="n">
-        <v>195.4109594035737</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>137.8154619960443</v>
+        <v>269.5134569480826</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>38.85099796338663</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>221.0021786982953</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>212.7378510283938</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>230.2634979541061</v>
+        <v>155.8860385675336</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3994,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>257.0152846411285</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>262.9810209066293</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>59.66385641544514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>155.2114886365807</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1348.719328075851</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="C2" t="n">
-        <v>1348.719328075851</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="D2" t="n">
-        <v>990.4536294691006</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E2" t="n">
-        <v>945.5895825788796</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2528.414918286867</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2309.78025125893</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656313</v>
+        <v>2056.018465897022</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1724.955578553451</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1724.955578553451</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.858660051663</v>
+        <v>1724.955578553451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1348.719328075851</v>
+        <v>1724.955578553451</v>
       </c>
     </row>
     <row r="3">
@@ -4404,52 +4406,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.0282177315057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>280.0282177315057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>280.0282177315057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>280.0282177315057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064341</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750359</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>280.0282177315057</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857191</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.680947310029</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656313</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656313</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656313</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.387305656313</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>2134.880026519315</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598705</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4680,7 +4682,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220518</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220518</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
         <v>235.9284171545819</v>
@@ -4723,7 +4725,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>614.4693688655818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>614.4693688655818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>614.4693688655818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>614.4693688655818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>614.4693688655818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>614.4693688655818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>614.4693688655818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.6767897220518</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1559.428949058529</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>1190.466432118117</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1004.183115213127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>618.3948626148824</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.568281034341</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1559.428949058529</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4917,13 +4919,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4986,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>320.3920853967602</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V10" t="n">
-        <v>320.3920853967602</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W10" t="n">
-        <v>320.3920853967602</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1749.341643278937</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C11" t="n">
-        <v>1749.341643278937</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>1193.181703431126</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>1193.181703431126</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>782.1957986415189</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>364.2319905397057</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5066,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1914.44116270037</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1749.341643278937</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>1749.341643278937</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5145,25 +5147,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5224,25 +5226,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T13" t="n">
-        <v>500.820796875036</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U13" t="n">
-        <v>308.6274700262513</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.9054987607762</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036446</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036446</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036446</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5294,10 +5296,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
@@ -5306,22 +5308,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2247.308246834949</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>1563.476704221264</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X14" t="n">
-        <v>1199.64467080071</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y14" t="n">
-        <v>809.505338824898</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5364,7 +5366,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5376,22 +5378,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600561</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600561</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V16" t="n">
-        <v>444.0275768541693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>444.0275768541693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>424.8522003762303</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>987.3573795552941</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C17" t="n">
-        <v>618.3948626148824</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D17" t="n">
-        <v>618.3948626148824</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
-        <v>618.3948626148824</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
@@ -5519,46 +5521,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1695.806495672433</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1377.496711531106</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y17" t="n">
-        <v>987.3573795552941</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5692,31 +5694,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>108.9687959810048</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U19" t="n">
-        <v>108.9687959810048</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V19" t="n">
-        <v>108.9687959810048</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W19" t="n">
-        <v>108.9687959810048</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1097.103316533936</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C20" t="n">
-        <v>1097.103316533936</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="D20" t="n">
-        <v>1097.103316533936</v>
+        <v>1575.278302174581</v>
       </c>
       <c r="E20" t="n">
-        <v>711.3150639356913</v>
+        <v>1189.490049576337</v>
       </c>
       <c r="F20" t="n">
-        <v>300.3291591460838</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036446</v>
@@ -5762,7 +5764,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X20" t="n">
-        <v>1873.842488573869</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1483.703156598057</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5829,22 +5831,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5874,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2173.079728044489</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>2173.079728044489</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
         <v>2022.963088632153</v>
@@ -5938,22 +5940,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T22" t="n">
-        <v>2469.840903686825</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U22" t="n">
-        <v>2469.840903686825</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V22" t="n">
-        <v>2469.840903686825</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W22" t="n">
-        <v>2469.840903686825</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X22" t="n">
-        <v>2469.840903686825</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y22" t="n">
-        <v>2354.728192874729</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2310.5492509541</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>2107.607341885688</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D23" t="n">
-        <v>1749.341643278937</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E23" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -6005,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>2697.149091018222</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6063,19 +6065,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6166,31 +6168,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>698.7120650600564</v>
+        <v>600.3676088257661</v>
       </c>
       <c r="T25" t="n">
-        <v>471.4038777286581</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="U25" t="n">
-        <v>182.2302673832261</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>546.1098286224644</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C26" t="n">
-        <v>381.1377017843616</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D26" t="n">
-        <v>381.1377017843616</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036446</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>936.2491605982761</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>546.1098286224644</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6303,10 +6305,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L27" t="n">
         <v>670.8219208598711</v>
@@ -6409,22 +6411,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>286.5323736931989</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W28" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X28" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
         <v>53.94298182036446</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1623.178216428726</v>
+        <v>2251.981069572904</v>
       </c>
       <c r="C29" t="n">
-        <v>1422.14692331494</v>
+        <v>1883.018552632492</v>
       </c>
       <c r="D29" t="n">
-        <v>1422.14692331494</v>
+        <v>1524.752854025742</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>1138.964601427497</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>727.9786966378899</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>310.0148885360768</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
@@ -6467,46 +6469,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y29" t="n">
-        <v>1623.178216428726</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6561,22 +6563,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6585,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6649,22 +6651,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2107.607341885688</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C32" t="n">
-        <v>2107.607341885688</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D32" t="n">
-        <v>1749.341643278937</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6704,13 +6706,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6734,16 +6736,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2481.073100146768</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>2481.073100146768</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X32" t="n">
-        <v>2107.607341885688</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>2107.607341885688</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961344</v>
@@ -6786,16 +6788,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2151.250374195015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>2151.250374195015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>2151.250374195015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2667.732171871845</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2667.732171871845</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2667.732171871845</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2440.423984540447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>2151.250374195015</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V34" t="n">
-        <v>2151.250374195015</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W34" t="n">
-        <v>2151.250374195015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>2151.250374195015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>2151.250374195015</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1637.643464250441</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>976.352425885035</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>565.3665210954275</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>147.4027129936144</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2496.639756704409</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2278.005089676471</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.243304314563</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.243304314563</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W35" t="n">
-        <v>2024.243304314563</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X35" t="n">
-        <v>2024.243304314563</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y35" t="n">
-        <v>2024.243304314563</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="36">
@@ -6990,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>368.8844281164666</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>773.5003462121384</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1297.647259770169</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2499.764283539866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2330.828100611959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U37" t="n">
-        <v>2499.764283539866</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V37" t="n">
-        <v>2499.764283539866</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W37" t="n">
-        <v>2499.764283539866</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X37" t="n">
-        <v>2499.764283539866</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y37" t="n">
-        <v>2499.764283539866</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1717.15289212512</v>
+        <v>1491.915471247701</v>
       </c>
       <c r="C38" t="n">
-        <v>1348.190375184709</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D38" t="n">
-        <v>989.9246765779581</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="E38" t="n">
-        <v>604.1364239797138</v>
+        <v>737.1647017090454</v>
       </c>
       <c r="F38" t="n">
-        <v>193.1505191901062</v>
+        <v>326.1787969194378</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V38" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W38" t="n">
-        <v>2090.6186503862</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X38" t="n">
-        <v>1717.15289212512</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y38" t="n">
-        <v>1717.15289212512</v>
+        <v>1878.515311311823</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2697.149091018223</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="C40" t="n">
-        <v>2528.212908090316</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="D40" t="n">
-        <v>2378.09626867798</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="E40" t="n">
-        <v>2378.09626867798</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="F40" t="n">
-        <v>2231.20632118007</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="G40" t="n">
-        <v>2062.206520918402</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H40" t="n">
-        <v>2062.206520918402</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977608</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662037</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171277</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>2549.002432452406</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018223</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018223</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018223</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="X40" t="n">
-        <v>2697.149091018223</v>
+        <v>2107.40582193917</v>
       </c>
       <c r="Y40" t="n">
-        <v>2697.149091018223</v>
+        <v>2107.40582193917</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>808.0839286340179</v>
+        <v>1491.915471247701</v>
       </c>
       <c r="C41" t="n">
-        <v>808.0839286340179</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D41" t="n">
-        <v>808.0839286340179</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E41" t="n">
-        <v>422.2956760357736</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F41" t="n">
-        <v>422.2956760357736</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V41" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W41" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X41" t="n">
-        <v>1584.823100673951</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y41" t="n">
-        <v>1194.68376869814</v>
+        <v>1878.515311311823</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N42" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649889</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245972</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T43" t="n">
-        <v>286.5323736931989</v>
+        <v>500.8207968750357</v>
       </c>
       <c r="U43" t="n">
-        <v>53.94298182036446</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036446</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2255.520561484594</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C44" t="n">
-        <v>1886.558044544182</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D44" t="n">
-        <v>1528.292345937432</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E44" t="n">
-        <v>1142.504093339188</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
-        <v>731.5181885495801</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>313.554380447767</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="X44" t="n">
-        <v>2642.120401548716</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>2642.120401548716</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2636.88256938646</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C46" t="n">
-        <v>2636.88256938646</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D46" t="n">
-        <v>2486.765929974124</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E46" t="n">
-        <v>2338.852836391731</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F46" t="n">
-        <v>2191.962888893821</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W46" t="n">
-        <v>2636.88256938646</v>
+        <v>438.7118141694734</v>
       </c>
       <c r="X46" t="n">
-        <v>2636.88256938646</v>
+        <v>210.722263271456</v>
       </c>
       <c r="Y46" t="n">
-        <v>2636.88256938646</v>
+        <v>53.94298182036443</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747125</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714827</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>248.7449980781076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>90.6414676374722</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270198</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>337.5149636509429</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>7.368881804929998</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22714,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>134.1064259184893</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>338.2729339837166</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22799,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>325.9684189484036</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,13 +22950,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>63.2649227476284</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23008,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>170.2625578847422</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>58.2374134625291</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23197,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>80.49006577330459</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>123.8906333253337</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23245,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>16.73665413220925</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>206.2825764512505</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>56.01837628787183</v>
       </c>
       <c r="U13" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X14" t="n">
-        <v>9.53738759212024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23704,10 +23706,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>206.7260326758775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>54.60441437855502</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>62.45749068994752</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>171.2340993700032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>20.39139144845126</v>
       </c>
       <c r="G20" t="n">
-        <v>169.8618544683329</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24178,7 +24180,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.6230696481199</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="23">
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>164.3604017932789</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24406,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>85.66177732315722</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>125.133230616595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>201.9504862012858</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W28" t="n">
-        <v>274.8441537345797</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>166.251911588359</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>70.41158511580198</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24737,10 +24739,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.30896099449322</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24853,13 +24855,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24889,13 +24891,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>113.8370275073941</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>64.62950912787335</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25096,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801578</v>
@@ -25126,16 +25128,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>231.3976389028397</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>30.38987441310726</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,13 +25329,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>1.885271837007195</v>
       </c>
       <c r="U37" t="n">
-        <v>90.87091483840402</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>275.9687080247506</v>
+        <v>144.2707130727123</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25445,19 +25447,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25549,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>83.71149628510265</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>96.11462382895161</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>144.2707130727122</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>201.0463189924012</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,10 +25687,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>56.01837628787163</v>
+        <v>130.3958356744442</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>66.90748812322863</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25922,16 +25924,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>106.7500797718398</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26083,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>226.8591419211459</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551412</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>737339.1555401824</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737339.1555401824</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="D2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="F2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="F2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="G2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="K2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="M2" t="n">
-        <v>274694.9795149699</v>
-      </c>
       <c r="N2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149695</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
         <v>513.1084990597035</v>
@@ -26430,13 +26432,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="H4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="I4" t="n">
         <v>513.1084990597036</v>
-      </c>
-      <c r="H4" t="n">
-        <v>513.1084990597036</v>
-      </c>
-      <c r="I4" t="n">
-        <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
         <v>513.1084990597036</v>
@@ -26448,16 +26450,16 @@
         <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="O4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26481,37 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340945</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340945</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340945</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398645.0862620437</v>
+        <v>-398645.0862620438</v>
       </c>
       <c r="C6" t="n">
-        <v>191322.7929525006</v>
+        <v>191322.7929525007</v>
       </c>
       <c r="D6" t="n">
-        <v>191322.7929525006</v>
+        <v>191322.7929525005</v>
       </c>
       <c r="E6" t="n">
-        <v>224950.3929525006</v>
+        <v>224950.3929525007</v>
       </c>
       <c r="F6" t="n">
         <v>224950.3929525006</v>
@@ -26540,13 +26542,13 @@
         <v>224950.3929525006</v>
       </c>
       <c r="I6" t="n">
+        <v>224950.3929525005</v>
+      </c>
+      <c r="J6" t="n">
+        <v>48527.17375990745</v>
+      </c>
+      <c r="K6" t="n">
         <v>224950.3929525007</v>
-      </c>
-      <c r="J6" t="n">
-        <v>48527.17375990775</v>
-      </c>
-      <c r="K6" t="n">
-        <v>224950.3929525005</v>
       </c>
       <c r="L6" t="n">
         <v>224950.3929525006</v>
@@ -26555,13 +26557,13 @@
         <v>224950.3929525007</v>
       </c>
       <c r="N6" t="n">
+        <v>224950.3929525008</v>
+      </c>
+      <c r="O6" t="n">
         <v>224950.3929525006</v>
       </c>
-      <c r="O6" t="n">
-        <v>224950.3929525003</v>
-      </c>
       <c r="P6" t="n">
-        <v>224950.3929525007</v>
+        <v>224950.3929525006</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26768,16 +26770,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
     </row>
     <row r="4">
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="E4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="F4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,16 +31041,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
         <v>193.1674799081577</v>
@@ -31060,25 +31062,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31850,28 +31852,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32084,10 +32086,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N15" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
         <v>193.3156655923047</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32561,13 +32563,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
@@ -32792,7 +32794,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>132.9984977071298</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -33029,7 +33031,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>132.9984977071302</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
         <v>205.8702969983122</v>
@@ -33260,7 +33262,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33275,7 +33277,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>149.897181251634</v>
+        <v>149.8971812516336</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479578</v>
@@ -33506,7 +33508,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
@@ -33518,7 +33520,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034983</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33746,28 +33748,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O36" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33883,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L40" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M40" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S40" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O42" t="n">
-        <v>149.897181251634</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323687</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L43" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M43" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S43" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653333</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M46" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35732,13 +35734,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,13 +36211,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L27" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36923,7 +36925,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>401.1632560839191</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735647</v>
@@ -37154,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338903</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>242.1053372686588</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M40" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N40" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O40" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730645</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N43" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O43" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N46" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O46" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1146673.778482486</v>
+        <v>1095354.117138119</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90807.18807719863</v>
+        <v>33774.90809222372</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728818</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>167.0468310040415</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>236.3502629847533</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>57.44045292477234</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.99995778729098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>68.96469210887021</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>98.11554172172842</v>
       </c>
       <c r="X8" t="n">
-        <v>311.4936872159399</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>224.7502551838231</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.1861186321479</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>15.11714581632423</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>89.06613335611783</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>285.545380001678</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>295.9408816142891</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>8.546296656423063</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>289.431740553411</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>97.34004921506769</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>223.8243835520302</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>156.6012219076463</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>386.4846542932602</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>145.5687411441663</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>126.4837616268617</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>225.7295147172697</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>369.9755039560989</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>51.25670523203428</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H29" t="n">
-        <v>253.5111876485552</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.9069145994737</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>251.6811090875128</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>14.5968903908887</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H35" t="n">
-        <v>92.52513386151743</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>26.32882004050031</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.8719871951471</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.5134569480826</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>221.0021786982953</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>225.4603876057575</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U43" t="n">
-        <v>155.8860385675336</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>409.6777365899913</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>262.9810209066293</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.2114886365807</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1338.355738489329</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C2" t="n">
-        <v>1338.355738489329</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>1338.355738489329</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2528.414918286867</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2309.78025125893</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U2" t="n">
-        <v>2056.018465897022</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1724.955578553451</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1724.955578553451</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="X2" t="n">
-        <v>1724.955578553451</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y2" t="n">
-        <v>1724.955578553451</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>269.7120139078064</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>111.9636413403365</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694739</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2134.880026519315</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2373.726000495839</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.880026519315</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="6">
@@ -4628,13 +4628,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.509002921313</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.509002921313</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,16 +4904,16 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810045</v>
+        <v>501.108524424795</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810045</v>
+        <v>501.108524424795</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1920.409918978288</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C11" t="n">
         <v>1551.447402037877</v>
       </c>
       <c r="D11" t="n">
-        <v>1193.181703431126</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E11" t="n">
-        <v>1193.181703431126</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F11" t="n">
-        <v>782.1957986415189</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G11" t="n">
-        <v>364.2319905397057</v>
+        <v>396.407546043275</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>69.21282607927782</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5086,7 +5086,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.00975904241</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5138,7 +5138,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5147,25 +5147,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1363.553390680693</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C14" t="n">
-        <v>1363.553390680693</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D14" t="n">
-        <v>1363.553390680693</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5281,10 +5281,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5305,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>1363.553390680693</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X14" t="n">
-        <v>1363.553390680693</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y14" t="n">
-        <v>1363.553390680693</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5366,34 +5366,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="G16" t="n">
         <v>53.94298182036445</v>
@@ -5460,28 +5460,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>597.8010803716834</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U16" t="n">
-        <v>308.6274700262513</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1577.945354755378</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.982837814967</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,10 +5515,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224077</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="X17" t="n">
-        <v>2354.684526795312</v>
+        <v>1954.952953346655</v>
       </c>
       <c r="Y17" t="n">
-        <v>1964.5451948195</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5703,22 +5703,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>274.7355609638946</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X19" t="n">
-        <v>274.7355609638946</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1933.544000781331</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="C20" t="n">
-        <v>1933.544000781331</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.278302174581</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E20" t="n">
-        <v>1189.490049576337</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
         <v>799.1015098861748</v>
@@ -5746,58 +5746,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018223</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>125.4609311463253</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>2407.731920981262</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>2179.742370083245</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.94416071721</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776798</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889461</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2550.109958549368</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2331.47529152143</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2331.47529152143</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.0594214943678</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C25" t="n">
-        <v>373.0594214943678</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D25" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>600.3676088257661</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>373.0594214943678</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U25" t="n">
-        <v>373.0594214943678</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V25" t="n">
-        <v>373.0594214943678</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W25" t="n">
-        <v>373.0594214943678</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X25" t="n">
-        <v>373.0594214943678</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y25" t="n">
-        <v>373.0594214943678</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776798</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>528.2078759112907</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V28" t="n">
-        <v>571.3497027553424</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2251.981069572904</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>1883.018552632492</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D29" t="n">
-        <v>1524.752854025742</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E29" t="n">
-        <v>1138.964601427497</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F29" t="n">
-        <v>727.9786966378899</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G29" t="n">
-        <v>310.0148885360768</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6505,10 +6505,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>2642.120401548716</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>2251.981069572904</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6542,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.94416071721</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776798</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776798</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785536</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889461</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224075</v>
@@ -6718,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6785,7 +6785,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
         <v>1194.968834417902</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>215.5772630464452</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>215.5772630464452</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>68.68731554853485</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>68.68731554853485</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610024</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V34" t="n">
-        <v>184.2708856551155</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036446</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036446</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036446</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1362.140678483279</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C35" t="n">
-        <v>1362.140678483279</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D35" t="n">
-        <v>1362.140678483279</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E35" t="n">
-        <v>976.352425885035</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F35" t="n">
-        <v>565.3665210954275</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G35" t="n">
-        <v>147.4027129936144</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2125.745768720171</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1752.280010459091</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y35" t="n">
-        <v>1362.140678483279</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7019,13 +7019,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7037,28 +7037,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>274.7355609638946</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247701</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.95295430729</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.95295430729</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090454</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194378</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
@@ -7180,7 +7180,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287635</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311823</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2107.40582193917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2107.40582193917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2107.40582193917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2107.40582193917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2107.40582193917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977608</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662037</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171277</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2549.002432452406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2334.714009270569</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>2107.40582193917</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>2107.40582193917</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V40" t="n">
-        <v>2107.40582193917</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W40" t="n">
-        <v>2107.40582193917</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X40" t="n">
-        <v>2107.40582193917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>2107.40582193917</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247701</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548715</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287635</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311823</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.1903022614628</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.060406649889</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750357</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U43" t="n">
-        <v>343.360151857325</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V43" t="n">
         <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1268.680947310029</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.680947310029</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.680947310029</v>
+        <v>853.5471299640544</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>467.7588773658102</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>467.7588773658102</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7666,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205144</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2311.057514205144</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.420119349963</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y44" t="n">
-        <v>1655.280787374151</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641996</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.128984206434</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>728.128984206434</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W46" t="n">
-        <v>438.7118141694734</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>210.722263271456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.6414676374722</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270198</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,7 +22558,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>7.368881804929998</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22606,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>112.8907057326597</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>77.5251688675659</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,13 +22786,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>338.2729339837166</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>280.2762766085428</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841384</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23004,13 +23004,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23077,19 +23077,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>251.1254269956846</v>
       </c>
       <c r="X8" t="n">
-        <v>58.2374134625291</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23196,13 +23196,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>80.49006577330459</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>61.53161905815466</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>16.73665413220925</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>136.814170428537</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>59.54933966209452</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>56.01837628787183</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>69.13766161900492</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>53.30008710312387</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>158.7635056026278</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23700,25 +23700,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>38.32051791672393</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>58.83083962672745</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>45.19995918853699</v>
@@ -23943,22 +23943,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>62.45749068994752</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>208.6716698633612</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>20.39139144845126</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="J22" t="n">
         <v>45.19995918853699</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>28.84697166480524</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>85.66177732315722</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>60.79348361932134</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>12.75833770738171</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>128.575274949903</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24660,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H29" t="n">
-        <v>70.41158511580198</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>33.33990649915418</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>113.5917826834948</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,25 +25080,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>141.5739984509065</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>157.4983735401875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H35" t="n">
-        <v>231.3976389028397</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25365,7 +25365,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>1.885271837007195</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>199.3808353485368</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>141.8110544255358</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.2707130727123</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>83.71149628510265</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>56.69292621882474</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>144.2707130727122</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>123.7805811116555</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,13 +25839,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3958356744442</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>4.10643343080369</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25924,13 +25924,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>106.7500797718398</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>63.37316471551412</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149699</v>
@@ -26322,34 +26322,34 @@
         <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
+        <v>274694.9795149695</v>
+      </c>
+      <c r="F2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="H2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="I2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="J2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="K2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="G2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="I2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149696</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="M2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="N2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149697</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="C4" t="n">
         <v>513.1084990597035</v>
@@ -26438,22 +26438,22 @@
         <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
         <v>513.1084990597035</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26487,31 +26487,31 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398645.0862620438</v>
+        <v>-404713.5000078632</v>
       </c>
       <c r="C6" t="n">
-        <v>191322.7929525007</v>
+        <v>185254.3792066815</v>
       </c>
       <c r="D6" t="n">
-        <v>191322.7929525005</v>
+        <v>185254.3792066813</v>
       </c>
       <c r="E6" t="n">
-        <v>224950.3929525007</v>
+        <v>218881.9792066812</v>
       </c>
       <c r="F6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="G6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="H6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="I6" t="n">
-        <v>224950.3929525005</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="J6" t="n">
-        <v>48527.17375990745</v>
+        <v>42458.76001408842</v>
       </c>
       <c r="K6" t="n">
-        <v>224950.3929525007</v>
+        <v>218881.9792066813</v>
       </c>
       <c r="L6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="M6" t="n">
-        <v>224950.3929525007</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="N6" t="n">
-        <v>224950.3929525008</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="O6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066814</v>
       </c>
       <c r="P6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066813</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26758,28 +26758,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="E4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="E4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26807,31 +26807,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31378,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727431</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32086,7 +32086,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
@@ -32095,7 +32095,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
@@ -32314,7 +32314,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,7 +32332,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>111.7343803072865</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
@@ -32472,7 +32472,7 @@
         <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727431</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081578</v>
@@ -32551,10 +32551,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32569,7 +32569,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33277,25 +33277,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>149.8971812516336</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M33" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33736,10 +33736,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33748,7 +33748,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
         <v>193.3156655923047</v>
@@ -33891,40 +33891,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396472</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649101</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M40" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,40 +34128,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649101</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.29709682323687</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M43" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396472</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>11.76595806653333</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639064</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M46" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35743,7 +35743,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35980,7 +35980,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K20" t="n">
         <v>297.223041434342</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36217,7 +36217,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37545,25 +37545,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770686</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M40" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N40" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730645</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N43" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770686</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047529</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N46" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
